--- a/OlympicData/Olympics.xlsx
+++ b/OlympicData/Olympics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="460" windowWidth="24560" windowHeight="13060" tabRatio="500"/>
+    <workbookView xWindow="11580" yWindow="460" windowWidth="24560" windowHeight="13060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
